--- a/MATLAB/DischargeModel/data5_1.xlsx
+++ b/MATLAB/DischargeModel/data5_1.xlsx
@@ -365,16 +365,16 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A2" sqref="A2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
